--- a/BackTest/2019-10-26 BackTest BTC.xlsx
+++ b/BackTest/2019-10-26 BackTest BTC.xlsx
@@ -4891,9 +4891,11 @@
         <v>84.37148829999998</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>9072000</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
@@ -5006,9 +5008,11 @@
         <v>86.27837086999997</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>9083000</v>
+      </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
@@ -5043,9 +5047,11 @@
         <v>81.09967086999997</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>9067000</v>
+      </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
@@ -5119,9 +5125,11 @@
         <v>87.24706447999998</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>9069000</v>
+      </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
@@ -5156,9 +5164,11 @@
         <v>94.17536088999998</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>9080000</v>
+      </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
@@ -5193,9 +5203,11 @@
         <v>86.39770890999998</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>9086000</v>
+      </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
@@ -5269,9 +5281,11 @@
         <v>104.17938449</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>9083000</v>
+      </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
@@ -5306,9 +5320,11 @@
         <v>124.96188449</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>9091000</v>
+      </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
@@ -5713,16 +5729,18 @@
         <v>944.6497471099999</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L138" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
       <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
@@ -5748,11 +5766,15 @@
         <v>1071.93314703</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5781,11 +5803,15 @@
         <v>929.8282790599999</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5814,11 +5840,15 @@
         <v>804.4547171899999</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5847,11 +5877,15 @@
         <v>877.3450549399998</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5880,11 +5914,15 @@
         <v>805.1635086199999</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5913,11 +5951,15 @@
         <v>733.0773381899999</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5950,7 +5992,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5983,7 +6029,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6016,7 +6066,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6049,7 +6103,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6082,7 +6140,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6115,7 +6177,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6148,7 +6214,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6181,7 +6251,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6214,7 +6288,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6247,7 +6325,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6280,7 +6362,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6313,7 +6399,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6346,7 +6436,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6379,7 +6473,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6408,11 +6506,15 @@
         <v>1006.44743795</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6441,11 +6543,15 @@
         <v>982.2270379500001</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6474,11 +6580,15 @@
         <v>1007.52083477</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6507,11 +6617,15 @@
         <v>1048.90722453</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6540,11 +6654,15 @@
         <v>1109.12652453</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6573,11 +6691,15 @@
         <v>1072.58917122</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6606,11 +6728,15 @@
         <v>1151.50321367</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6639,11 +6765,15 @@
         <v>1096.52721347</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6672,11 +6802,15 @@
         <v>1146.37068683</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6705,11 +6839,15 @@
         <v>1117.15428878</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6738,11 +6876,15 @@
         <v>1083.48888878</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6771,11 +6913,15 @@
         <v>1029.92398904</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6804,11 +6950,15 @@
         <v>994.5814890399997</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6841,7 +6991,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6874,7 +7028,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6907,7 +7065,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6940,7 +7102,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6973,7 +7139,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7006,7 +7176,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7039,7 +7213,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7072,7 +7250,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7105,7 +7287,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7138,7 +7324,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7171,7 +7361,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7204,7 +7398,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7237,7 +7435,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7270,7 +7472,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7303,7 +7509,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7336,7 +7546,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7369,7 +7583,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7402,7 +7620,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7435,7 +7657,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7468,7 +7694,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7501,7 +7731,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7534,7 +7768,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7567,7 +7805,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7600,7 +7842,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7633,7 +7879,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7666,7 +7916,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7699,7 +7953,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7732,7 +7990,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7765,7 +8027,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7798,7 +8064,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7831,7 +8101,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7864,7 +8138,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7897,7 +8175,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7930,7 +8212,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7963,7 +8249,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7996,7 +8286,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8029,7 +8323,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8062,7 +8360,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8095,7 +8397,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8128,7 +8434,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8161,7 +8471,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8194,7 +8508,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8227,7 +8545,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8260,7 +8582,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8293,7 +8619,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8326,7 +8656,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8359,7 +8693,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8392,7 +8730,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8425,7 +8767,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8458,7 +8804,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8491,7 +8841,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8524,7 +8878,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8557,7 +8915,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8590,7 +8952,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8623,7 +8989,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8656,7 +9026,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8689,7 +9063,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8722,7 +9100,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8755,7 +9137,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8788,7 +9174,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8821,7 +9211,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8854,7 +9248,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8887,7 +9285,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8920,7 +9322,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8953,7 +9359,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8986,7 +9396,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9019,7 +9433,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9052,7 +9470,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9085,7 +9507,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9118,7 +9544,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9151,7 +9581,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9184,7 +9618,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9217,7 +9655,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9250,7 +9692,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9283,7 +9729,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9316,7 +9766,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9349,7 +9803,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9382,7 +9840,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9415,7 +9877,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9448,7 +9914,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9481,7 +9951,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9514,7 +9988,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9547,7 +10025,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9580,7 +10062,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9613,7 +10099,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9646,7 +10136,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9679,7 +10173,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9712,7 +10210,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9745,7 +10247,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9778,7 +10284,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9811,7 +10321,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9844,7 +10358,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9877,7 +10395,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9910,7 +10432,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9943,7 +10469,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9976,7 +10506,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10009,7 +10543,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10042,7 +10580,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10075,7 +10617,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10108,7 +10654,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10141,7 +10691,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10174,7 +10728,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10207,7 +10765,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10240,7 +10802,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10273,7 +10839,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10306,7 +10876,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10339,7 +10913,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10372,7 +10950,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10405,7 +10987,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10438,7 +11024,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10471,7 +11061,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10504,7 +11098,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10537,7 +11135,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10570,7 +11172,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10603,7 +11209,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10636,7 +11246,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10669,7 +11283,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10702,7 +11320,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10735,7 +11357,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10768,7 +11394,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10801,7 +11431,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10834,7 +11468,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10867,7 +11505,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10900,7 +11542,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10933,7 +11579,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10966,7 +11616,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10999,7 +11653,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11032,7 +11690,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11065,7 +11727,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11098,7 +11764,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11131,7 +11801,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11164,7 +11838,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11197,7 +11875,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11230,7 +11912,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11263,7 +11949,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11296,7 +11986,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11329,7 +12023,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11362,7 +12060,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11395,7 +12097,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11428,7 +12134,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11461,7 +12171,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11494,7 +12208,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11527,7 +12245,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11560,7 +12282,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11593,7 +12319,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11626,7 +12356,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11659,7 +12393,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11692,7 +12430,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11725,7 +12467,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11758,7 +12504,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11791,7 +12541,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11824,7 +12578,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11857,7 +12615,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11890,7 +12652,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11923,7 +12689,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11956,7 +12726,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11989,7 +12763,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12022,7 +12800,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12055,7 +12837,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12088,7 +12874,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12121,7 +12911,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12154,7 +12948,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12187,7 +12985,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12220,7 +13022,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12253,7 +13059,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12286,7 +13096,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12319,7 +13133,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12352,7 +13170,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12385,7 +13207,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12418,7 +13244,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12451,7 +13281,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12484,7 +13318,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12517,7 +13355,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12550,7 +13392,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12583,7 +13429,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12616,7 +13466,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12649,7 +13503,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12682,7 +13540,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12715,7 +13577,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12748,7 +13614,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12781,7 +13651,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12814,7 +13688,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12847,7 +13725,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12880,7 +13762,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12913,7 +13799,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12946,7 +13836,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12979,7 +13873,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13012,7 +13910,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13045,7 +13947,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13078,7 +13984,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13111,7 +14021,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13144,7 +14058,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13177,7 +14095,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13210,7 +14132,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13243,7 +14169,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13276,7 +14206,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13309,7 +14243,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13342,7 +14280,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13375,7 +14317,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13408,7 +14354,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13441,7 +14391,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13474,7 +14428,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13507,7 +14465,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13540,7 +14502,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13573,7 +14539,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13606,7 +14576,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13639,7 +14613,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13672,7 +14650,11 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13705,7 +14687,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13738,7 +14724,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13771,7 +14761,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13804,7 +14798,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13837,7 +14835,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13870,7 +14872,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13903,7 +14909,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13936,7 +14946,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13969,7 +14983,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14002,7 +15020,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14035,7 +15057,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14068,7 +15094,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14101,7 +15131,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14134,7 +15168,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14167,7 +15205,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14200,7 +15242,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14233,7 +15279,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14266,7 +15316,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14299,7 +15353,11 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14332,7 +15390,11 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14365,7 +15427,11 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14398,7 +15464,11 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14431,7 +15501,11 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14464,7 +15538,11 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14497,7 +15575,11 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14530,7 +15612,11 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14563,7 +15649,11 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14596,7 +15686,11 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14629,7 +15723,11 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14662,7 +15760,11 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14695,7 +15797,11 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14728,7 +15834,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14761,7 +15871,11 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14794,7 +15908,11 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14827,7 +15945,11 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14860,7 +15982,11 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14893,7 +16019,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14926,7 +16056,11 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14959,7 +16093,11 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14992,7 +16130,11 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15025,7 +16167,11 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15058,7 +16204,11 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15091,7 +16241,11 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15124,7 +16278,11 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15157,7 +16315,11 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15190,7 +16352,11 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15223,7 +16389,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15256,7 +16426,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15289,7 +16463,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15322,7 +16500,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15355,7 +16537,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15388,7 +16574,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15421,7 +16611,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15454,7 +16648,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15487,7 +16685,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15520,7 +16722,11 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15553,7 +16759,11 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15586,7 +16796,11 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15619,7 +16833,11 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15652,7 +16870,11 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15685,7 +16907,11 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15718,7 +16944,11 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15751,7 +16981,11 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15784,7 +17018,11 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15817,7 +17055,11 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15850,7 +17092,11 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15883,7 +17129,11 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15916,7 +17166,11 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15949,7 +17203,11 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15982,7 +17240,11 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16015,7 +17277,11 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16048,7 +17314,11 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16081,7 +17351,11 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16114,7 +17388,11 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16147,7 +17425,11 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16180,7 +17462,11 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16213,7 +17499,11 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16246,7 +17536,11 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16279,7 +17573,11 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16312,7 +17610,11 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16345,7 +17647,11 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16378,7 +17684,11 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16411,7 +17721,11 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16444,7 +17758,11 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16477,7 +17795,11 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16510,7 +17832,11 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16543,7 +17869,11 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16576,7 +17906,11 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16609,7 +17943,11 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16642,7 +17980,11 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16675,7 +18017,11 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16708,7 +18054,11 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16741,7 +18091,11 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16774,7 +18128,11 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16807,7 +18165,11 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16840,7 +18202,11 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16873,7 +18239,11 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16906,7 +18276,11 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16939,7 +18313,11 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16972,7 +18350,11 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17005,7 +18387,11 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17038,7 +18424,11 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17071,7 +18461,11 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17104,7 +18498,11 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17137,7 +18535,11 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17170,7 +18572,11 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17203,7 +18609,11 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17236,7 +18646,11 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17269,7 +18683,11 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17302,7 +18720,11 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17335,7 +18757,11 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17368,7 +18794,11 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17401,7 +18831,11 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17434,7 +18868,11 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17467,7 +18905,11 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17500,7 +18942,11 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17533,7 +18979,11 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17566,7 +19016,11 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17599,7 +19053,11 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17632,7 +19090,11 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17665,7 +19127,11 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17698,7 +19164,11 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17731,7 +19201,11 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17764,7 +19238,11 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17797,7 +19275,11 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17830,7 +19312,11 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17863,7 +19349,11 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17896,7 +19386,11 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17929,7 +19423,11 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17962,7 +19460,11 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17995,7 +19497,11 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -18028,7 +19534,11 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -18061,7 +19571,11 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -18094,7 +19608,11 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18127,7 +19645,11 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18160,7 +19682,11 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18193,7 +19719,11 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18226,7 +19756,11 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18259,7 +19793,11 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18292,7 +19830,11 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18325,7 +19867,11 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18358,7 +19904,11 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18391,7 +19941,11 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18424,7 +19978,11 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18457,7 +20015,11 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18490,7 +20052,11 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18523,7 +20089,11 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18556,7 +20126,11 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18589,7 +20163,11 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18622,7 +20200,11 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18655,7 +20237,11 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18688,7 +20274,11 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18721,7 +20311,11 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18754,7 +20348,11 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18787,7 +20385,11 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18820,7 +20422,11 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18853,7 +20459,11 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18886,7 +20496,11 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18919,7 +20533,11 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18952,7 +20570,11 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18985,7 +20607,11 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -19018,7 +20644,11 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -19051,7 +20681,11 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -19084,7 +20718,11 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -19117,7 +20755,11 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -19150,7 +20792,11 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -19183,7 +20829,11 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -19216,7 +20866,11 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -19249,7 +20903,11 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -19282,7 +20940,11 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -19315,7 +20977,11 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -19348,7 +21014,11 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -19381,7 +21051,11 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19414,7 +21088,11 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19447,7 +21125,11 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19480,7 +21162,11 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19513,7 +21199,11 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19546,7 +21236,11 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19579,7 +21273,11 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19612,7 +21310,11 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19645,7 +21347,11 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19678,7 +21384,11 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19711,7 +21421,11 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19744,7 +21458,11 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19777,7 +21495,11 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19810,7 +21532,11 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19843,7 +21569,11 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19876,7 +21606,11 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19909,7 +21643,11 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19942,7 +21680,11 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19975,7 +21717,11 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -20008,7 +21754,11 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -20041,7 +21791,11 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -20074,7 +21828,11 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -20107,7 +21865,11 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -20140,7 +21902,11 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -20173,7 +21939,11 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -20206,7 +21976,11 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -20239,7 +22013,11 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -20272,7 +22050,11 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20305,7 +22087,11 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20338,7 +22124,11 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20371,7 +22161,11 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20404,7 +22198,11 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20437,7 +22235,11 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20470,7 +22272,11 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20503,7 +22309,11 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20536,7 +22346,11 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20569,7 +22383,11 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20602,7 +22420,11 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20635,7 +22457,11 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20668,7 +22494,11 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20701,7 +22531,11 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20734,7 +22568,11 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20767,7 +22605,11 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20800,7 +22642,11 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20833,7 +22679,11 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20866,7 +22716,11 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20899,7 +22753,11 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20932,7 +22790,11 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20965,7 +22827,11 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20998,7 +22864,11 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -21031,7 +22901,11 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -21064,7 +22938,11 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -21097,7 +22975,11 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -21130,7 +23012,11 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -21163,7 +23049,11 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -21196,7 +23086,11 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -21229,7 +23123,11 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -21262,7 +23160,11 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -21295,7 +23197,11 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -21328,7 +23234,11 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21361,7 +23271,11 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21394,7 +23308,11 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21427,7 +23345,11 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21460,7 +23382,11 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21493,7 +23419,11 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21526,7 +23456,11 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21559,7 +23493,11 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21592,7 +23530,11 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21625,7 +23567,11 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21658,7 +23604,11 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21691,7 +23641,11 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21724,7 +23678,11 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21757,7 +23715,11 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21790,7 +23752,11 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21823,7 +23789,11 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21856,7 +23826,11 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21889,7 +23863,11 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21922,7 +23900,11 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21955,7 +23937,11 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21988,7 +23974,11 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -22021,7 +24011,11 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -22054,7 +24048,11 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -22087,7 +24085,11 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -22120,7 +24122,11 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -22153,7 +24159,11 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -22186,7 +24196,11 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -22219,7 +24233,11 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -22252,7 +24270,11 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -22285,7 +24307,11 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -22318,7 +24344,11 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22351,7 +24381,11 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22384,7 +24418,11 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -22417,7 +24455,11 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -22450,7 +24492,11 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22483,7 +24529,11 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22516,7 +24566,11 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22549,7 +24603,11 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22582,7 +24640,11 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -22615,7 +24677,11 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -22648,7 +24714,11 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -22681,7 +24751,11 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22714,7 +24788,11 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -22747,7 +24825,11 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22780,7 +24862,11 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22813,7 +24899,11 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22846,7 +24936,11 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22879,7 +24973,11 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22912,7 +25010,11 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22945,7 +25047,11 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22978,7 +25084,11 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -23011,7 +25121,11 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -23044,7 +25158,11 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -23073,11 +25191,15 @@
         <v>2634.356641659999</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -23106,11 +25228,15 @@
         <v>2663.899741659999</v>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -23139,11 +25265,15 @@
         <v>2784.521492359999</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -23172,11 +25302,15 @@
         <v>2908.920535519999</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -23205,11 +25339,15 @@
         <v>2734.438521529999</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -23238,11 +25376,15 @@
         <v>2640.132587659999</v>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -23271,11 +25413,15 @@
         <v>2697.628124949999</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -23304,11 +25450,15 @@
         <v>2762.71608307</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -23337,11 +25487,15 @@
         <v>2726.426292499999</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -23370,11 +25524,15 @@
         <v>2772.745268019999</v>
       </c>
       <c r="H673" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -23403,11 +25561,15 @@
         <v>2723.69984028</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -23436,11 +25598,15 @@
         <v>2681.8660037</v>
       </c>
       <c r="H675" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23469,11 +25635,15 @@
         <v>2597.761207879999</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -23502,11 +25672,15 @@
         <v>2641.747615689999</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -23535,11 +25709,15 @@
         <v>2584.777818199999</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23568,11 +25746,15 @@
         <v>2597.284317769999</v>
       </c>
       <c r="H679" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23601,11 +25783,15 @@
         <v>2645.629079389999</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -23634,11 +25820,15 @@
         <v>2672.587658589999</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -23667,11 +25857,15 @@
         <v>2692.301258589999</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -23700,11 +25894,15 @@
         <v>2715.484796679999</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -23733,11 +25931,15 @@
         <v>2697.705665589999</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -23766,11 +25968,15 @@
         <v>2662.514897949999</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23799,11 +26005,15 @@
         <v>2703.774542479999</v>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23832,11 +26042,15 @@
         <v>2728.941023789999</v>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23865,11 +26079,15 @@
         <v>2746.759423789999</v>
       </c>
       <c r="H688" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23898,11 +26116,15 @@
         <v>2725.806023789999</v>
       </c>
       <c r="H689" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23931,11 +26153,15 @@
         <v>2777.923925709999</v>
       </c>
       <c r="H690" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -23964,11 +26190,15 @@
         <v>2704.51110784</v>
       </c>
       <c r="H691" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -23997,11 +26227,15 @@
         <v>2685.88266947</v>
       </c>
       <c r="H692" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -24030,11 +26264,15 @@
         <v>2732.71334972</v>
       </c>
       <c r="H693" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -24063,11 +26301,15 @@
         <v>2777.59043383</v>
       </c>
       <c r="H694" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -24096,11 +26338,15 @@
         <v>2833.65032076</v>
       </c>
       <c r="H695" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -24129,11 +26375,15 @@
         <v>2874.61431186</v>
       </c>
       <c r="H696" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -24162,11 +26412,15 @@
         <v>2959.5450429</v>
       </c>
       <c r="H697" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -24195,11 +26449,15 @@
         <v>3087.6950848</v>
       </c>
       <c r="H698" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -24228,11 +26486,15 @@
         <v>3022.39688483</v>
       </c>
       <c r="H699" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -24261,11 +26523,15 @@
         <v>2977.36798868</v>
       </c>
       <c r="H700" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -24294,11 +26560,15 @@
         <v>2924.065178039999</v>
       </c>
       <c r="H701" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -24327,11 +26597,15 @@
         <v>2973.742359469999</v>
       </c>
       <c r="H702" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -24360,11 +26634,15 @@
         <v>3004.961667409999</v>
       </c>
       <c r="H703" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -24393,11 +26671,15 @@
         <v>3067.752505189999</v>
       </c>
       <c r="H704" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -24426,11 +26708,15 @@
         <v>3033.236975269999</v>
       </c>
       <c r="H705" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -24459,11 +26745,15 @@
         <v>3053.371380049999</v>
       </c>
       <c r="H706" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -24492,11 +26782,15 @@
         <v>3017.309548029999</v>
       </c>
       <c r="H707" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -24525,11 +26819,15 @@
         <v>3042.489179109999</v>
       </c>
       <c r="H708" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -24558,11 +26856,15 @@
         <v>3059.368006209999</v>
       </c>
       <c r="H709" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -24591,11 +26893,15 @@
         <v>3095.744065359999</v>
       </c>
       <c r="H710" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -24624,11 +26930,15 @@
         <v>3127.337283999999</v>
       </c>
       <c r="H711" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -24657,11 +26967,15 @@
         <v>3186.118372769999</v>
       </c>
       <c r="H712" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -24690,11 +27004,15 @@
         <v>3319.090437049999</v>
       </c>
       <c r="H713" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -24727,7 +27045,11 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -24760,7 +27082,11 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -24793,7 +27119,11 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -24826,7 +27156,11 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -24859,7 +27193,11 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -24892,7 +27230,11 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -24925,7 +27267,11 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -24958,7 +27304,11 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -24991,7 +27341,11 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -25024,7 +27378,11 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -25057,7 +27415,11 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -25090,7 +27452,11 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -25123,7 +27489,11 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -25156,7 +27526,11 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -25189,7 +27563,11 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -25222,7 +27600,11 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -25255,7 +27637,11 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -25284,14 +27670,16 @@
         <v>4112.14006033</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
-      <c r="L731" t="n">
-        <v>1</v>
-      </c>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L731" t="inlineStr"/>
       <c r="M731" t="inlineStr"/>
     </row>
     <row r="732">
@@ -25317,7 +27705,7 @@
         <v>4204.56592383</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -25350,7 +27738,7 @@
         <v>4026.357718369999</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -25383,7 +27771,7 @@
         <v>3868.843168379999</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -25416,7 +27804,7 @@
         <v>3755.96680792</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -25449,7 +27837,7 @@
         <v>3586.84290185</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -25482,7 +27870,7 @@
         <v>3417.78031773</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -25515,7 +27903,7 @@
         <v>3529.3000445</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -25548,7 +27936,7 @@
         <v>3679.44371743</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -25581,7 +27969,7 @@
         <v>3790.11374875</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -25614,7 +28002,7 @@
         <v>3693.149741549999</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -25647,7 +28035,7 @@
         <v>3593.512927929999</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -25680,7 +28068,7 @@
         <v>3683.19476918</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -25713,7 +28101,7 @@
         <v>3601.46395491</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -25746,7 +28134,7 @@
         <v>3558.33735803</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -25779,7 +28167,7 @@
         <v>3626.83647623</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -25812,7 +28200,7 @@
         <v>3549.08186191</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -25845,7 +28233,7 @@
         <v>3660.47551714</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -25878,7 +28266,7 @@
         <v>3759.32093439</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -25911,7 +28299,7 @@
         <v>3684.58518644</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -25944,7 +28332,7 @@
         <v>3603.19514012</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -25977,7 +28365,7 @@
         <v>3513.92770222</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -26010,7 +28398,7 @@
         <v>3423.90782887</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -26043,7 +28431,7 @@
         <v>3356.63908435</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -26076,7 +28464,7 @@
         <v>3305.32440051</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -26109,7 +28497,7 @@
         <v>3399.71203398</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -26142,7 +28530,7 @@
         <v>3343.23615902</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -26175,7 +28563,7 @@
         <v>3326.65178864</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -26208,7 +28596,7 @@
         <v>3212.25930319</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -26241,7 +28629,7 @@
         <v>3340.619710739999</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -26274,7 +28662,7 @@
         <v>3417.650058179999</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -26307,7 +28695,7 @@
         <v>3344.576743479999</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -26340,7 +28728,7 @@
         <v>3298.241439479999</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -26373,7 +28761,7 @@
         <v>3223.745939479999</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -26406,7 +28794,7 @@
         <v>3281.842585699999</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -26439,7 +28827,7 @@
         <v>3309.782882959999</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -26472,7 +28860,7 @@
         <v>3388.016913479999</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -26505,7 +28893,7 @@
         <v>3463.339677259999</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -26538,7 +28926,7 @@
         <v>3410.503437389999</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -26571,7 +28959,7 @@
         <v>3453.608500189999</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -26604,7 +28992,7 @@
         <v>3394.927625269999</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -26637,7 +29025,7 @@
         <v>3335.584509919999</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -26670,7 +29058,7 @@
         <v>3359.102556679999</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -26703,7 +29091,7 @@
         <v>3425.471719159998</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -26736,7 +29124,7 @@
         <v>3445.528225549998</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -26769,7 +29157,7 @@
         <v>3488.277022799998</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -26802,7 +29190,7 @@
         <v>3509.495663709998</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -26835,7 +29223,7 @@
         <v>3509.495663709998</v>
       </c>
       <c r="H778" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -26868,7 +29256,7 @@
         <v>3490.868122169998</v>
       </c>
       <c r="H779" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -26901,7 +29289,7 @@
         <v>3459.899026389998</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -26934,7 +29322,7 @@
         <v>3436.452985989998</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -26967,7 +29355,7 @@
         <v>3407.677673759998</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -27000,7 +29388,7 @@
         <v>3429.253045889998</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -42081,7 +44469,7 @@
         <v>3017.562666599998</v>
       </c>
       <c r="H1240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1240" t="inlineStr"/>
       <c r="J1240" t="inlineStr"/>
@@ -42114,7 +44502,7 @@
         <v>3096.777626089998</v>
       </c>
       <c r="H1241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1241" t="inlineStr"/>
       <c r="J1241" t="inlineStr"/>
@@ -42147,7 +44535,7 @@
         <v>3125.691017599998</v>
       </c>
       <c r="H1242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1242" t="inlineStr"/>
       <c r="J1242" t="inlineStr"/>
@@ -42180,7 +44568,7 @@
         <v>3098.294365819998</v>
       </c>
       <c r="H1243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1243" t="inlineStr"/>
       <c r="J1243" t="inlineStr"/>
@@ -42213,7 +44601,7 @@
         <v>3109.044950969998</v>
       </c>
       <c r="H1244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1244" t="inlineStr"/>
       <c r="J1244" t="inlineStr"/>
@@ -42246,7 +44634,7 @@
         <v>3100.538111979999</v>
       </c>
       <c r="H1245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1245" t="inlineStr"/>
       <c r="J1245" t="inlineStr"/>
@@ -42279,7 +44667,7 @@
         <v>3090.245686939998</v>
       </c>
       <c r="H1246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1246" t="inlineStr"/>
       <c r="J1246" t="inlineStr"/>
@@ -42312,7 +44700,7 @@
         <v>3075.864043349999</v>
       </c>
       <c r="H1247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1247" t="inlineStr"/>
       <c r="J1247" t="inlineStr"/>
@@ -42345,7 +44733,7 @@
         <v>3092.217643349999</v>
       </c>
       <c r="H1248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1248" t="inlineStr"/>
       <c r="J1248" t="inlineStr"/>
@@ -42378,7 +44766,7 @@
         <v>3076.117238299998</v>
       </c>
       <c r="H1249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1249" t="inlineStr"/>
       <c r="J1249" t="inlineStr"/>
@@ -42411,7 +44799,7 @@
         <v>3080.613640439999</v>
       </c>
       <c r="H1250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1250" t="inlineStr"/>
       <c r="J1250" t="inlineStr"/>
@@ -42444,7 +44832,7 @@
         <v>3095.250340439999</v>
       </c>
       <c r="H1251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1251" t="inlineStr"/>
       <c r="J1251" t="inlineStr"/>
@@ -42477,7 +44865,7 @@
         <v>3108.493455319999</v>
       </c>
       <c r="H1252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1252" t="inlineStr"/>
       <c r="J1252" t="inlineStr"/>
@@ -42510,7 +44898,7 @@
         <v>3095.783255319999</v>
       </c>
       <c r="H1253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1253" t="inlineStr"/>
       <c r="J1253" t="inlineStr"/>
@@ -42543,7 +44931,7 @@
         <v>3098.741855319999</v>
       </c>
       <c r="H1254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1254" t="inlineStr"/>
       <c r="J1254" t="inlineStr"/>
@@ -42576,7 +44964,7 @@
         <v>3116.353336369998</v>
       </c>
       <c r="H1255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1255" t="inlineStr"/>
       <c r="J1255" t="inlineStr"/>
@@ -42609,7 +44997,7 @@
         <v>3140.059836369998</v>
       </c>
       <c r="H1256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1256" t="inlineStr"/>
       <c r="J1256" t="inlineStr"/>
@@ -42642,7 +45030,7 @@
         <v>3114.876512869998</v>
       </c>
       <c r="H1257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1257" t="inlineStr"/>
       <c r="J1257" t="inlineStr"/>
@@ -42906,7 +45294,7 @@
         <v>3049.713386439998</v>
       </c>
       <c r="H1265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1265" t="inlineStr"/>
       <c r="J1265" t="inlineStr"/>
@@ -42939,7 +45327,7 @@
         <v>3034.646486439998</v>
       </c>
       <c r="H1266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1266" t="inlineStr"/>
       <c r="J1266" t="inlineStr"/>
@@ -42972,7 +45360,7 @@
         <v>3010.202786439998</v>
       </c>
       <c r="H1267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1267" t="inlineStr"/>
       <c r="J1267" t="inlineStr"/>
@@ -43005,7 +45393,7 @@
         <v>3035.713086439998</v>
       </c>
       <c r="H1268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1268" t="inlineStr"/>
       <c r="J1268" t="inlineStr"/>
@@ -43038,7 +45426,7 @@
         <v>3028.727886439998</v>
       </c>
       <c r="H1269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1269" t="inlineStr"/>
       <c r="J1269" t="inlineStr"/>
